--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xplore_idm\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xplore_idm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
   <si>
     <t>polio0</t>
   </si>
@@ -84,6 +85,12 @@
   </si>
   <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -114,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,15 +129,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J24" sqref="I24:J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +447,7 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -436,6 +460,9 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
@@ -448,8 +475,11 @@
       <c r="N1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -478,19 +508,34 @@
         <v>11</v>
       </c>
       <c r="K2">
-        <v>0.54</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="L2">
-        <v>5.3999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M2">
-        <v>0.39100000000000001</v>
+        <v>0.495</v>
       </c>
       <c r="N2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2">
+        <v>0.32</v>
+      </c>
+      <c r="R2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="S2">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="T2">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -519,19 +564,34 @@
         <v>6</v>
       </c>
       <c r="K3">
-        <v>0.66100000000000003</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="L3">
-        <v>2.5000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="M3">
-        <v>0.28899999999999998</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="N3">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="R3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="S3">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="T3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -560,19 +620,34 @@
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.66200000000000003</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="L4">
-        <v>3.7999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="M4">
-        <v>0.309</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="N4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="R4">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="S4">
+        <v>0.373</v>
+      </c>
+      <c r="T4">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -601,19 +676,34 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.69</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="L5">
-        <v>3.5000000000000003E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="M5">
-        <v>0.34499999999999997</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="N5">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="R5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="T5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -642,19 +732,34 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.76300000000000001</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="L6">
-        <v>2.4E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="M6">
-        <v>0.34399999999999997</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="N6">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="R6">
+        <v>6.3E-2</v>
+      </c>
+      <c r="S6">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="T6">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -683,19 +788,34 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.72699999999999998</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="L7">
-        <v>2.8000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M7">
-        <v>0.43099999999999999</v>
+        <v>0.501</v>
       </c>
       <c r="N7">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="R7">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="S7">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="T7">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -724,19 +844,34 @@
         <v>2</v>
       </c>
       <c r="K8">
-        <v>0.56399999999999995</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="L8">
-        <v>2.1999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M8">
-        <v>0.13200000000000001</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="N8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.9E-2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="R8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S8">
+        <v>-0.04</v>
+      </c>
+      <c r="T8">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -765,19 +900,34 @@
         <v>4</v>
       </c>
       <c r="K9">
-        <v>0.60699999999999998</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="L9">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="M9">
-        <v>5.0000000000000001E-3</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="N9">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.9E-2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>0.191</v>
+      </c>
+      <c r="R9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="S9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="T9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -806,19 +956,34 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>0.502</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="L10">
-        <v>2.4E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M10">
-        <v>-1.0999999999999999E-2</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>0.105</v>
+      </c>
+      <c r="R10">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S10">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="T10">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -847,19 +1012,34 @@
         <v>15</v>
       </c>
       <c r="K11">
-        <v>0.79300000000000004</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="L11">
-        <v>2.5999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="M11">
-        <v>0.39400000000000002</v>
+        <v>0.499</v>
       </c>
       <c r="N11">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="R11">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="S11">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="T11">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -888,214 +1068,720 @@
         <v>16</v>
       </c>
       <c r="K12">
-        <v>0.44500000000000001</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="L12">
-        <v>3.2000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="M12">
-        <v>0.41799999999999998</v>
+        <v>0.121</v>
       </c>
       <c r="N12">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12">
+        <v>0.128</v>
+      </c>
+      <c r="R12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S12">
+        <v>7.8E-2</v>
+      </c>
+      <c r="T12">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <f>VLOOKUP($A15,$A$2:$E$12,5,0)</f>
         <v>0.60199999999999998</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <f>VLOOKUP($A15,$J$2:$N$12,4,0)</f>
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D15" s="2">
+        <v>0.501</v>
+      </c>
+      <c r="D15" s="3">
         <f>C15-B15</f>
-        <v>-0.17099999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>-0.10099999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="1">
-        <f t="shared" ref="B16:C25" si="0">VLOOKUP($A16,$A$2:$E$12,5,0)</f>
+      <c r="B16" s="2">
+        <f t="shared" ref="B16:B25" si="0">VLOOKUP($A16,$A$2:$E$12,5,0)</f>
         <v>0.20699999999999999</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <f t="shared" ref="C16:C25" si="1">VLOOKUP($A16,$J$2:$N$12,4,0)</f>
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="D16" s="2">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="D16" s="3">
         <f t="shared" ref="D16:D25" si="2">C16-B16</f>
-        <v>-7.4999999999999983E-2</v>
+        <v>-0.215</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D17" s="2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D17" s="3">
         <f t="shared" si="2"/>
-        <v>-0.185</v>
+        <v>-1.8999999999999989E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="D18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="3">
         <f t="shared" si="2"/>
-        <v>-2.8000000000000001E-2</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>0.59099999999999997</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>0.309</v>
-      </c>
-      <c r="D19" s="2">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D19" s="3">
         <f t="shared" si="2"/>
-        <v>-0.28199999999999997</v>
+        <v>-0.12499999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>0.59099999999999997</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="D20" s="2">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="D20" s="3">
         <f t="shared" si="2"/>
-        <v>-0.246</v>
+        <v>-0.18799999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>0.55600000000000005</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="D21" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D21" s="3">
         <f t="shared" si="2"/>
-        <v>-0.21200000000000008</v>
+        <v>-0.16700000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>0.63500000000000001</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="D22" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="D22" s="3">
         <f t="shared" si="2"/>
-        <v>-0.24399999999999999</v>
+        <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>0.47499999999999998</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D23" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D23" s="3">
         <f t="shared" si="2"/>
-        <v>-0.186</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="D24" s="2">
+        <v>0.121</v>
+      </c>
+      <c r="D24" s="3">
         <f t="shared" si="2"/>
-        <v>0.29199999999999998</v>
+        <v>-5.0000000000000044E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>0.58799999999999997</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="D25" s="2">
+        <v>0.499</v>
+      </c>
+      <c r="D25" s="3">
         <f t="shared" si="2"/>
-        <v>-0.19399999999999995</v>
+        <v>-8.8999999999999968E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D15:D25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.501</v>
+      </c>
+      <c r="D2">
+        <v>0.495</v>
+      </c>
+      <c r="E2">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="F2">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H2" s="4">
+        <f>AVERAGE(B2:F2)</f>
+        <v>0.49359999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.371</v>
+      </c>
+      <c r="C3">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H12" si="0">AVERAGE(B3:F3)</f>
+        <v>0.41459999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.50739999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.52</v>
+      </c>
+      <c r="F6">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45739999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.372</v>
+      </c>
+      <c r="D7">
+        <v>0.501</v>
+      </c>
+      <c r="E7">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.255</v>
+      </c>
+      <c r="C8">
+        <v>0.193</v>
+      </c>
+      <c r="D8">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E8">
+        <v>0.15</v>
+      </c>
+      <c r="F8">
+        <v>0.191</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15619999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20659999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11459999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.499</v>
+      </c>
+      <c r="E11">
+        <v>0.433</v>
+      </c>
+      <c r="F11">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45139999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.121</v>
+      </c>
+      <c r="E12">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F12">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <f>VLOOKUP($A15,Sheet1!$A$2:$E$12,5,0)</f>
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="C15" s="2">
+        <f>VLOOKUP($A15,$A$2:$H$12,8,0)</f>
+        <v>0.433</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-B15</f>
+        <v>-0.16899999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <f>VLOOKUP($A16,Sheet1!$A$2:$E$12,5,0)</f>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:C25" si="1">VLOOKUP($A16,$A$2:$H$12,8,0)</f>
+        <v>0.15619999999999998</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D25" si="2">C16-B16</f>
+        <v>-5.0800000000000012E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <f>VLOOKUP($A17,Sheet1!$A$2:$E$12,5,0)</f>
+        <v>0.19</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20659999999999998</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6599999999999976E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <f>VLOOKUP($A18,Sheet1!$A$2:$E$12,5,0)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="2"/>
+        <v>9.7599999999999992E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2">
+        <f>VLOOKUP($A19,Sheet1!$A$2:$E$12,5,0)</f>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50739999999999996</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
+        <v>-8.3600000000000008E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
+        <f>VLOOKUP($A20,Sheet1!$A$2:$E$12,5,0)</f>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.14599999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <f>VLOOKUP($A21,Sheet1!$A$2:$E$12,5,0)</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45739999999999997</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="2"/>
+        <v>-9.8600000000000076E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2">
+        <f>VLOOKUP($A22,Sheet1!$A$2:$E$12,5,0)</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.14140000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <f>VLOOKUP($A23,Sheet1!$A$2:$E$12,5,0)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41459999999999997</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="2"/>
+        <v>-6.0400000000000009E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <f>VLOOKUP($A24,Sheet1!$A$2:$E$12,5,0)</f>
+        <v>0.126</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="2"/>
+        <v>1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <f>VLOOKUP($A25,Sheet1!$A$2:$E$12,5,0)</f>
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45139999999999991</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.13660000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="23">
   <si>
     <t>polio0</t>
   </si>
@@ -92,12 +92,15 @@
   <si>
     <t>Regression</t>
   </si>
+  <si>
+    <t>Outcome</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +109,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -149,12 +160,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,15 +450,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -508,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="K2">
-        <v>0.65900000000000003</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="L2">
         <v>0.04</v>
       </c>
       <c r="M2">
-        <v>0.495</v>
+        <v>0.45</v>
       </c>
       <c r="N2">
         <v>6.4000000000000001E-2</v>
@@ -523,16 +538,16 @@
         <v>11</v>
       </c>
       <c r="Q2">
-        <v>0.32</v>
+        <v>0.9</v>
       </c>
       <c r="R2">
-        <v>7.6999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="S2">
-        <v>0.40899999999999997</v>
+        <v>0.311</v>
       </c>
       <c r="T2">
-        <v>7.8E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -564,31 +579,31 @@
         <v>6</v>
       </c>
       <c r="K3">
-        <v>0.58699999999999997</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="L3">
-        <v>3.1E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="M3">
-        <v>0.41099999999999998</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="N3">
-        <v>4.4999999999999998E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="P3" t="s">
         <v>6</v>
       </c>
       <c r="Q3">
-        <v>0.32700000000000001</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="R3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S3">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="T3">
         <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="S3">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="T3">
-        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -620,31 +635,31 @@
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.70499999999999996</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="L4">
-        <v>3.3000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M4">
-        <v>0.46600000000000003</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="N4">
-        <v>6.4000000000000001E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="P4" t="s">
         <v>12</v>
       </c>
       <c r="Q4">
-        <v>0.36299999999999999</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="R4">
-        <v>7.2999999999999995E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="S4">
-        <v>0.373</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="T4">
-        <v>7.2999999999999995E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -676,31 +691,31 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.77500000000000002</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="L5">
-        <v>2.4E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="M5">
-        <v>0.40300000000000002</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="N5">
-        <v>7.0999999999999994E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="P5" t="s">
         <v>13</v>
       </c>
       <c r="Q5">
-        <v>0.34100000000000003</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="R5">
-        <v>7.3999999999999996E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="S5">
-        <v>0.33200000000000002</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="T5">
-        <v>7.3999999999999996E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -732,31 +747,31 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.65700000000000003</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="L6">
-        <v>3.4000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="M6">
-        <v>0.38900000000000001</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="N6">
-        <v>5.8999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="P6" t="s">
         <v>14</v>
       </c>
       <c r="Q6">
-        <v>0.35699999999999998</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="R6">
-        <v>6.3E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="S6">
-        <v>0.30599999999999999</v>
+        <v>0.432</v>
       </c>
       <c r="T6">
-        <v>6.6000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -788,31 +803,31 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.68600000000000005</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="L7">
-        <v>0.03</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="M7">
-        <v>0.501</v>
+        <v>0.43</v>
       </c>
       <c r="N7">
-        <v>5.3999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="P7" t="s">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.33500000000000002</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="R7">
-        <v>6.6000000000000003E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="S7">
-        <v>0.33400000000000002</v>
+        <v>0.315</v>
       </c>
       <c r="T7">
-        <v>6.6000000000000003E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -844,31 +859,31 @@
         <v>2</v>
       </c>
       <c r="K8">
-        <v>0.68600000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="L8">
-        <v>1.4999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="M8">
-        <v>-8.0000000000000002E-3</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="N8">
-        <v>3.9E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="P8" t="s">
         <v>2</v>
       </c>
       <c r="Q8">
-        <v>0.16600000000000001</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="R8">
-        <v>4.1000000000000002E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="S8">
-        <v>-0.04</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="T8">
-        <v>4.7E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -900,31 +915,31 @@
         <v>4</v>
       </c>
       <c r="K9">
-        <v>0.58899999999999997</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="L9">
-        <v>2.1000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M9">
-        <v>0.17100000000000001</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="N9">
-        <v>3.9E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="P9" t="s">
         <v>4</v>
       </c>
       <c r="Q9">
-        <v>0.191</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="R9">
-        <v>4.2999999999999997E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="S9">
-        <v>6.0999999999999999E-2</v>
+        <v>0.159</v>
       </c>
       <c r="T9">
-        <v>4.3999999999999997E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -956,31 +971,31 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>0.44800000000000001</v>
+        <v>0.432</v>
       </c>
       <c r="L10">
-        <v>2.5000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="M10">
-        <v>0.2</v>
+        <v>0.152</v>
       </c>
       <c r="N10">
-        <v>0.04</v>
+        <v>3.9E-2</v>
       </c>
       <c r="P10" t="s">
         <v>5</v>
       </c>
       <c r="Q10">
-        <v>0.105</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="R10">
-        <v>4.2000000000000003E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="S10">
-        <v>8.2000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="T10">
-        <v>4.2999999999999997E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1012,31 +1027,31 @@
         <v>15</v>
       </c>
       <c r="K11">
-        <v>0.53700000000000003</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="L11">
-        <v>5.3999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M11">
-        <v>0.499</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="N11">
-        <v>6.4000000000000001E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="P11" t="s">
         <v>15</v>
       </c>
       <c r="Q11">
-        <v>0.38700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="R11">
-        <v>7.4999999999999997E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="S11">
-        <v>0.27700000000000002</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="T11">
-        <v>8.5999999999999993E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1068,43 +1083,107 @@
         <v>16</v>
       </c>
       <c r="K12">
-        <v>0.61599999999999999</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="L12">
-        <v>2.1999999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="M12">
-        <v>0.121</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="N12">
-        <v>4.3999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="P12" t="s">
         <v>16</v>
       </c>
       <c r="Q12">
-        <v>0.128</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="R12">
-        <v>4.5999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="S12">
-        <v>7.8E-2</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="T12">
-        <v>6.3E-2</v>
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="L13">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M13">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="N13">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="R13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S13">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="T13">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>0.63</v>
+      </c>
+      <c r="L14">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M14">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="N14">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="R14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S14">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="T14">
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1116,12 +1195,42 @@
         <v>0.60199999999999998</v>
       </c>
       <c r="C15" s="2">
-        <f>VLOOKUP($A15,$J$2:$N$12,4,0)</f>
-        <v>0.501</v>
+        <f>E27</f>
+        <v>0.44180000000000003</v>
       </c>
       <c r="D15" s="3">
         <f>C15-B15</f>
-        <v>-0.10099999999999998</v>
+        <v>-0.16019999999999995</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="L15">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.441</v>
+      </c>
+      <c r="N15">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="R15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S15">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="T15">
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1133,15 +1242,45 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ref="C16:C25" si="1">VLOOKUP($A16,$J$2:$N$12,4,0)</f>
-        <v>-8.0000000000000002E-3</v>
+        <f t="shared" ref="C16:C25" si="1">E28</f>
+        <v>0.31819999999999998</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ref="D16:D25" si="2">C16-B16</f>
-        <v>-0.215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <v>0.69</v>
+      </c>
+      <c r="L16">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M16">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="N16">
+        <v>0.06</v>
+      </c>
+      <c r="P16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="R16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="S16">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="T16">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1151,14 +1290,44 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>0.17100000000000001</v>
+        <v>0.26140000000000002</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="2"/>
-        <v>-1.8999999999999989E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.1400000000000019E-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="L17">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M17">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="N17">
+        <v>5.5E-2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="R17">
+        <v>0.01</v>
+      </c>
+      <c r="S17">
+        <v>0.47</v>
+      </c>
+      <c r="T17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1168,14 +1337,44 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.13879999999999998</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="2"/>
-        <v>0.183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.12179999999999998</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="L18">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M18">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="N18">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="R18">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="S18">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="T18">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1185,14 +1384,44 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>0.46600000000000003</v>
+        <v>0.41080000000000005</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="2"/>
-        <v>-0.12499999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.18019999999999992</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="L19">
+        <v>2.3E-2</v>
+      </c>
+      <c r="M19">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="N19">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="R19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S19">
+        <v>0.224</v>
+      </c>
+      <c r="T19">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1202,14 +1431,44 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>0.40300000000000002</v>
+        <v>0.45919999999999994</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="2"/>
-        <v>-0.18799999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.13180000000000003</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="L20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M20">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="N20">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="R20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S20">
+        <v>0.182</v>
+      </c>
+      <c r="T20">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1219,14 +1478,44 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>0.38900000000000001</v>
+        <v>0.44319999999999993</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="2"/>
-        <v>-0.16700000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.11280000000000012</v>
+      </c>
+      <c r="J21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="L21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M21">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="N21">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="R21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S21">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="T21">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,14 +1525,44 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>0.495</v>
+        <v>0.43260000000000004</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="2"/>
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.20239999999999997</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="L22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M22">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="N22">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="R22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S22">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="T22">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1253,14 +1572,44 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>0.41099999999999998</v>
+        <v>0.43459999999999999</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="2"/>
-        <v>-6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.0399999999999991E-2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="L23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="M23">
+        <v>0.109</v>
+      </c>
+      <c r="N23">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="P23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="R23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S23">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="T23">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1270,14 +1619,44 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>0.121</v>
+        <v>0.26479999999999998</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="2"/>
-        <v>-5.0000000000000044E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13879999999999998</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="L24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M24">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="N24">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="P24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="R24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S24">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="T24">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1287,11 +1666,1166 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>0.499</v>
+        <v>0.4572</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="2"/>
-        <v>-8.8999999999999968E-2</v>
+        <v>-0.13079999999999997</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="L25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M25">
+        <v>0.498</v>
+      </c>
+      <c r="N25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P25" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="R25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S25">
+        <v>0.44</v>
+      </c>
+      <c r="T25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="L26">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M26">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="N26">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="R26">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S26">
+        <v>0.375</v>
+      </c>
+      <c r="T26">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C27" s="5">
+        <f>AVERAGEIF($P$2:$P$56,$A15,$S$2:$S$56)</f>
+        <v>0.42659999999999998</v>
+      </c>
+      <c r="D27" s="5">
+        <f>AVERAGEIF($P$2:$P$56,$A15,$M$2:$M$56)</f>
+        <v>0.44180000000000003</v>
+      </c>
+      <c r="E27" s="6">
+        <f>MAX(C27:D27)</f>
+        <v>0.44180000000000003</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="L27">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M27">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="N27">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="R27">
+        <v>0.01</v>
+      </c>
+      <c r="S27">
+        <v>0.309</v>
+      </c>
+      <c r="T27">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:C37" si="3">AVERAGEIF($P$2:$P$56,$A16,$S$2:$S$56)</f>
+        <v>0.20039999999999999</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" ref="D28:D37" si="4">AVERAGEIF($P$2:$P$56,$A16,$M$2:$M$56)</f>
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" ref="E28:E37" si="5">MAX(C28:D28)</f>
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28">
+        <v>0.66</v>
+      </c>
+      <c r="L28">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M28">
+        <v>0.442</v>
+      </c>
+      <c r="N28">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="R28">
+        <v>0.01</v>
+      </c>
+      <c r="S28">
+        <v>0.502</v>
+      </c>
+      <c r="T28">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C29" s="5">
+        <f t="shared" si="3"/>
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="4"/>
+        <v>0.26140000000000002</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="5"/>
+        <v>0.26140000000000002</v>
+      </c>
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="L29">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M29">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="N29">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="R29">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="S29">
+        <v>0.45</v>
+      </c>
+      <c r="T29">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C30" s="5">
+        <f t="shared" si="3"/>
+        <v>0.13879999999999998</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13540000000000002</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="5"/>
+        <v>0.13879999999999998</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="L30">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M30">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="N30">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="R30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S30">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="T30">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C31" s="5">
+        <f t="shared" si="3"/>
+        <v>0.4042</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="4"/>
+        <v>0.41080000000000005</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="5"/>
+        <v>0.41080000000000005</v>
+      </c>
+      <c r="J31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L31">
+        <v>2.3E-2</v>
+      </c>
+      <c r="M31">
+        <v>0.255</v>
+      </c>
+      <c r="N31">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="P31" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="R31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S31">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T31">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C32" s="5">
+        <f t="shared" si="3"/>
+        <v>0.45919999999999994</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="4"/>
+        <v>0.41459999999999997</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="5"/>
+        <v>0.45919999999999994</v>
+      </c>
+      <c r="J32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>0.495</v>
+      </c>
+      <c r="L32">
+        <v>2.4E-2</v>
+      </c>
+      <c r="M32">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="N32">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="R32">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S32">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="T32">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C33" s="5">
+        <f t="shared" si="3"/>
+        <v>0.44319999999999993</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="4"/>
+        <v>0.43339999999999995</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="5"/>
+        <v>0.44319999999999993</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33">
+        <v>0.623</v>
+      </c>
+      <c r="L33">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M33">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="N33">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="R33">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S33">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="T33">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C34" s="5">
+        <f t="shared" si="3"/>
+        <v>0.37439999999999996</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="4"/>
+        <v>0.43260000000000004</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="5"/>
+        <v>0.43260000000000004</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="L34">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M34">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="N34">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="R34">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S34">
+        <v>0.312</v>
+      </c>
+      <c r="T34">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C35" s="5">
+        <f t="shared" si="3"/>
+        <v>0.35280000000000006</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="4"/>
+        <v>0.43459999999999999</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="5"/>
+        <v>0.43459999999999999</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="L35">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M35">
+        <v>0.496</v>
+      </c>
+      <c r="N35">
+        <v>0.06</v>
+      </c>
+      <c r="P35" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="R35">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S35">
+        <v>0.438</v>
+      </c>
+      <c r="T35">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C36" s="5">
+        <f t="shared" si="3"/>
+        <v>0.26479999999999998</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="4"/>
+        <v>0.1772</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="5"/>
+        <v>0.26479999999999998</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="L36">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M36">
+        <v>0.39</v>
+      </c>
+      <c r="N36">
+        <v>4.7E-2</v>
+      </c>
+      <c r="P36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>0.877</v>
+      </c>
+      <c r="R36">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S36">
+        <v>0.372</v>
+      </c>
+      <c r="T36">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C37" s="5">
+        <f t="shared" si="3"/>
+        <v>0.4572</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="4"/>
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="5"/>
+        <v>0.4572</v>
+      </c>
+      <c r="J37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="L37">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M37">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="N37">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="P37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="R37">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S37">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="T37">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C38" s="5"/>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="L38">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M38">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="N38">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="P38" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q38">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="R38">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="S38">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="T38">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="L39">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="M39">
+        <v>0.377</v>
+      </c>
+      <c r="N39">
+        <v>0.06</v>
+      </c>
+      <c r="P39" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q39">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="R39">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S39">
+        <v>0.38</v>
+      </c>
+      <c r="T39">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="L40">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="M40">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="N40">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="P40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="R40">
+        <v>0.01</v>
+      </c>
+      <c r="S40">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="T40">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="L41">
+        <v>2.3E-2</v>
+      </c>
+      <c r="M41">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="N41">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="P41" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="R41">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S41">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="T41">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="L42">
+        <v>2.3E-2</v>
+      </c>
+      <c r="M42">
+        <v>0.246</v>
+      </c>
+      <c r="N42">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="P42" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="R42">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S42">
+        <v>0.151</v>
+      </c>
+      <c r="T42">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>0.443</v>
+      </c>
+      <c r="L43">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="M43">
+        <v>0.184</v>
+      </c>
+      <c r="N43">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P43" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="R43">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S43">
+        <v>0.105</v>
+      </c>
+      <c r="T43">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="L44">
+        <v>0.04</v>
+      </c>
+      <c r="M44">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="N44">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="P44" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q44">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="R44">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S44">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="T44">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="L45">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M45">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="N45">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="P45" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="R45">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S45">
+        <v>0.224</v>
+      </c>
+      <c r="T45">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="L46">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M46">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="N46">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="P46" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q46">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="R46">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S46">
+        <v>0.308</v>
+      </c>
+      <c r="T46">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="L47">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M47">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="N47">
+        <v>4.7E-2</v>
+      </c>
+      <c r="P47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="R47">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S47">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="T47">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="L48">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M48">
+        <v>0.371</v>
+      </c>
+      <c r="N48">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="P48" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q48">
+        <v>0.89</v>
+      </c>
+      <c r="R48">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S48">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="T48">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="L49">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M49">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="N49">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="P49" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q49">
+        <v>0.9</v>
+      </c>
+      <c r="R49">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="S49">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="T49">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="L50">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M50">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="N50">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="P50" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q50">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="R50">
+        <v>0.01</v>
+      </c>
+      <c r="S50">
+        <v>0.432</v>
+      </c>
+      <c r="T50">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="L51">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M51">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="N51">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="P51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="R51">
+        <v>0.01</v>
+      </c>
+      <c r="S51">
+        <v>0.36</v>
+      </c>
+      <c r="T51">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="L52">
+        <v>2.4E-2</v>
+      </c>
+      <c r="M52">
+        <v>0.33</v>
+      </c>
+      <c r="N52">
+        <v>3.1E-2</v>
+      </c>
+      <c r="P52" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="R52">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S52">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="T52">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="L53">
+        <v>2.3E-2</v>
+      </c>
+      <c r="M53">
+        <v>0.248</v>
+      </c>
+      <c r="N53">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="P53" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q53">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="R53">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S53">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="T53">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>0.433</v>
+      </c>
+      <c r="L54">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M54">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="N54">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="P54" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="R54">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S54">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="T54">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="L55">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M55">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="N55">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="P55" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q55">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="R55">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S55">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="T55">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L56">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M56">
+        <v>0.254</v>
+      </c>
+      <c r="N56">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="P56" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q56">
+        <v>0.86</v>
+      </c>
+      <c r="R56">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S56">
+        <v>0.253</v>
+      </c>
+      <c r="T56">
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1308,6 +2842,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1315,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5850" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="nightlight" sheetId="1" r:id="rId1"/>
+    <sheet name="nightlight2" sheetId="2" r:id="rId2"/>
+    <sheet name="net" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="43">
   <si>
     <t>polio0</t>
   </si>
@@ -94,6 +95,66 @@
   </si>
   <si>
     <t>Outcome</t>
+  </si>
+  <si>
+    <t>Extractor</t>
+  </si>
+  <si>
+    <t>vgg11bn_2_4</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>wt decay</t>
+  </si>
+  <si>
+    <t>batches/epoch</t>
+  </si>
+  <si>
+    <t>lr decay</t>
+  </si>
+  <si>
+    <t>0.8 per 50 epochs</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>Training Loss</t>
+  </si>
+  <si>
+    <t>Test Loss</t>
+  </si>
+  <si>
+    <t>Training R2</t>
+  </si>
+  <si>
+    <t>Last year test r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    predictor = nn.Sequential(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        nn.Linear(n_features, 50),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        nn.Sigmoid(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        nn.Linear(50, 20),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        nn.Linear(20, 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        nn.Linear(n_features, 10),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        nn.Linear(10, 1),</t>
   </si>
 </sst>
 </file>
@@ -132,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -155,12 +216,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -169,6 +320,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,7 +3014,7 @@
   <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3137,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="2">
-        <f>VLOOKUP($A15,Sheet1!$A$2:$E$12,5,0)</f>
+        <f>VLOOKUP($A15,nightlight!$A$2:$E$12,5,0)</f>
         <v>0.60199999999999998</v>
       </c>
       <c r="C15" s="2">
@@ -3154,7 +3317,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2">
-        <f>VLOOKUP($A16,Sheet1!$A$2:$E$12,5,0)</f>
+        <f>VLOOKUP($A16,nightlight!$A$2:$E$12,5,0)</f>
         <v>0.20699999999999999</v>
       </c>
       <c r="C16" s="2">
@@ -3171,7 +3334,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <f>VLOOKUP($A17,Sheet1!$A$2:$E$12,5,0)</f>
+        <f>VLOOKUP($A17,nightlight!$A$2:$E$12,5,0)</f>
         <v>0.19</v>
       </c>
       <c r="C17" s="2">
@@ -3188,7 +3351,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2">
-        <f>VLOOKUP($A18,Sheet1!$A$2:$E$12,5,0)</f>
+        <f>VLOOKUP($A18,nightlight!$A$2:$E$12,5,0)</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="C18" s="2">
@@ -3205,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="2">
-        <f>VLOOKUP($A19,Sheet1!$A$2:$E$12,5,0)</f>
+        <f>VLOOKUP($A19,nightlight!$A$2:$E$12,5,0)</f>
         <v>0.59099999999999997</v>
       </c>
       <c r="C19" s="2">
@@ -3222,7 +3385,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="2">
-        <f>VLOOKUP($A20,Sheet1!$A$2:$E$12,5,0)</f>
+        <f>VLOOKUP($A20,nightlight!$A$2:$E$12,5,0)</f>
         <v>0.59099999999999997</v>
       </c>
       <c r="C20" s="2">
@@ -3239,7 +3402,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="2">
-        <f>VLOOKUP($A21,Sheet1!$A$2:$E$12,5,0)</f>
+        <f>VLOOKUP($A21,nightlight!$A$2:$E$12,5,0)</f>
         <v>0.55600000000000005</v>
       </c>
       <c r="C21" s="2">
@@ -3256,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="2">
-        <f>VLOOKUP($A22,Sheet1!$A$2:$E$12,5,0)</f>
+        <f>VLOOKUP($A22,nightlight!$A$2:$E$12,5,0)</f>
         <v>0.63500000000000001</v>
       </c>
       <c r="C22" s="2">
@@ -3273,7 +3436,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="2">
-        <f>VLOOKUP($A23,Sheet1!$A$2:$E$12,5,0)</f>
+        <f>VLOOKUP($A23,nightlight!$A$2:$E$12,5,0)</f>
         <v>0.47499999999999998</v>
       </c>
       <c r="C23" s="2">
@@ -3290,7 +3453,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="2">
-        <f>VLOOKUP($A24,Sheet1!$A$2:$E$12,5,0)</f>
+        <f>VLOOKUP($A24,nightlight!$A$2:$E$12,5,0)</f>
         <v>0.126</v>
       </c>
       <c r="C24" s="2">
@@ -3307,7 +3470,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="2">
-        <f>VLOOKUP($A25,Sheet1!$A$2:$E$12,5,0)</f>
+        <f>VLOOKUP($A25,nightlight!$A$2:$E$12,5,0)</f>
         <v>0.58799999999999997</v>
       </c>
       <c r="C25" s="2">
@@ -3334,4 +3497,632 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.49320000000000003</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.48070000000000002</v>
+      </c>
+      <c r="F2" s="9">
+        <f>VLOOKUP($A2,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.45519999999999999</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0.58220000000000005</v>
+      </c>
+      <c r="M2" s="9">
+        <f>VLOOKUP($A2,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.62960000000000005</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.62060000000000004</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.41010000000000002</v>
+      </c>
+      <c r="F3" s="9">
+        <f>VLOOKUP($A3,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0.62709999999999999</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0.63280000000000003</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.42620000000000002</v>
+      </c>
+      <c r="M3" s="9">
+        <f>VLOOKUP($A3,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.48139999999999999</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.53810000000000002</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.73550000000000004</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.55069999999999997</v>
+      </c>
+      <c r="F4" s="9">
+        <f>VLOOKUP($A4,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.48459999999999998</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.72589999999999999</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="M4" s="9">
+        <f>VLOOKUP($A4,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.49059999999999998</v>
+      </c>
+      <c r="F5" s="9">
+        <f>VLOOKUP($A5,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.50960000000000005</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.56330000000000002</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0.7319</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.53380000000000005</v>
+      </c>
+      <c r="M5" s="9">
+        <f>VLOOKUP($A5,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.55330000000000001</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.59079999999999999</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="F6" s="9">
+        <f>VLOOKUP($A6,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.54979999999999996</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.46689999999999998</v>
+      </c>
+      <c r="M6" s="9">
+        <f>VLOOKUP($A6,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.5998</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.51290000000000002</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="F7" s="9">
+        <f>VLOOKUP($A7,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.54590000000000005</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.57879999999999998</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0.67190000000000005</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.49759999999999999</v>
+      </c>
+      <c r="M7" s="9">
+        <f>VLOOKUP($A7,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.50490000000000002</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.37730000000000002</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.17180000000000001</v>
+      </c>
+      <c r="F8" s="9">
+        <f>VLOOKUP($A8,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.54330000000000001</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0.31240000000000001</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.1242</v>
+      </c>
+      <c r="M8" s="9">
+        <f>VLOOKUP($A8,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.57669999999999999</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.61309999999999998</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="F9" s="9">
+        <f>VLOOKUP($A9,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.19</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="9">
+        <f>VLOOKUP($A9,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.6663</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="F10" s="9">
+        <f>VLOOKUP($A10,nightlight!$A$15:$D$25,2,0)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.6804</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.69159999999999999</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M10" s="9">
+        <f>VLOOKUP($A10,nightlight!$A$15:$D$25,2,0)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.4824</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.47110000000000002</v>
+      </c>
+      <c r="F11" s="9">
+        <f>VLOOKUP($A11,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="M11" s="9">
+        <f>VLOOKUP($A11,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="F12" s="11">
+        <f>VLOOKUP($A12,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.126</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.1268</v>
+      </c>
+      <c r="M12" s="11">
+        <f>VLOOKUP($A12,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>0.01</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>1E-3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>500</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="47">
   <si>
     <t>polio0</t>
   </si>
@@ -155,13 +155,25 @@
   </si>
   <si>
     <t xml:space="preserve">        nn.Linear(10, 1),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        nn.Linear(100, 20),</t>
+  </si>
+  <si>
+    <t>Training all at the same time</t>
+  </si>
+  <si>
+    <t>0.7 per 50 epochs</t>
+  </si>
+  <si>
+    <t>vgg11bn_4_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +195,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -332,6 +350,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3501,19 +3523,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="12" t="s">
         <v>31</v>
@@ -3546,8 +3571,18 @@
       <c r="M1" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" s="1"/>
+      <c r="P1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
@@ -3586,8 +3621,22 @@
         <f>VLOOKUP($A2,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.63500000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="18">
+        <v>0.7913</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0.71730000000000005</v>
+      </c>
+      <c r="R2" s="9">
+        <f>VLOOKUP($A2,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="T2" s="21"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
@@ -3626,8 +3675,22 @@
         <f>VLOOKUP($A3,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="18">
+        <v>0.6522</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0.53959999999999997</v>
+      </c>
+      <c r="R3" s="9">
+        <f>VLOOKUP($A3,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="T3" s="21"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
@@ -3666,8 +3729,22 @@
         <f>VLOOKUP($A4,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.59099999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0.78290000000000004</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.6996</v>
+      </c>
+      <c r="R4" s="9">
+        <f>VLOOKUP($A4,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="T4" s="21"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3706,8 +3783,22 @@
         <f>VLOOKUP($A5,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.59099999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="18">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="R5" s="9">
+        <f>VLOOKUP($A5,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="T5" s="21"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
@@ -3746,8 +3837,22 @@
         <f>VLOOKUP($A6,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.55600000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="18">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.64390000000000003</v>
+      </c>
+      <c r="R6" s="9">
+        <f>VLOOKUP($A6,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="T6" s="21"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
@@ -3786,8 +3891,22 @@
         <f>VLOOKUP($A7,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.60199999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18">
+        <v>0.71340000000000003</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.60409999999999997</v>
+      </c>
+      <c r="R7" s="9">
+        <f>VLOOKUP($A7,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="T7" s="21"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
@@ -3826,8 +3945,22 @@
         <f>VLOOKUP($A8,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.20699999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="18">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="R8" s="9">
+        <f>VLOOKUP($A8,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
@@ -3866,8 +3999,22 @@
         <f>VLOOKUP($A9,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.19</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0.25080000000000002</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.1268</v>
+      </c>
+      <c r="R9" s="9">
+        <f>VLOOKUP($A9,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.19</v>
+      </c>
+      <c r="T9" s="21"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
@@ -3906,8 +4053,22 @@
         <f>VLOOKUP($A10,nightlight!$A$15:$D$25,2,0)</f>
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="18">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>-3.8E-3</v>
+      </c>
+      <c r="R10" s="9">
+        <f>VLOOKUP($A10,nightlight!$A$15:$D$25,2,0)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="T10" s="21"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
@@ -3946,8 +4107,22 @@
         <f>VLOOKUP($A11,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.58799999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="18">
+        <v>0.73740000000000006</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.66990000000000005</v>
+      </c>
+      <c r="R11" s="9">
+        <f>VLOOKUP($A11,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="T11" s="21"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
@@ -3986,8 +4161,22 @@
         <f>VLOOKUP($A12,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.126</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0.13070000000000001</v>
+      </c>
+      <c r="R12" s="11">
+        <f>VLOOKUP($A12,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.126</v>
+      </c>
+      <c r="T12" s="21"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4000,8 +4189,14 @@
       <c r="I14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4014,8 +4209,14 @@
       <c r="I15">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="20">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4028,8 +4229,14 @@
       <c r="I16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -4042,8 +4249,14 @@
       <c r="I17">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="20">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4056,8 +4269,14 @@
       <c r="I18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4070,56 +4289,212 @@
       <c r="I19">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="H20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
       <c r="H22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="H24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>38</v>
       </c>
+      <c r="O26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="18">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.73939999999999995</v>
+      </c>
+      <c r="D33" s="9">
+        <f>VLOOKUP($A33,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="18">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="D34" s="9">
+        <f>VLOOKUP($A34,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="18">
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.70989999999999998</v>
+      </c>
+      <c r="D35" s="9">
+        <f>VLOOKUP($A35,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="18">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="D36" s="9">
+        <f>VLOOKUP($A36,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="18">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="D37" s="9">
+        <f>VLOOKUP($A37,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="18">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.67210000000000003</v>
+      </c>
+      <c r="D38" s="9">
+        <f>VLOOKUP($A38,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="19">
+        <v>0.80520000000000003</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="D39" s="11">
+        <f>VLOOKUP($A39,nightlight!$A$15:$D$25,2,0)</f>
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="F39" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -3523,10 +3523,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3538,7 +3538,7 @@
     <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="12" t="s">
         <v>31</v>
@@ -3582,7 +3582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
@@ -3634,9 +3634,28 @@
         <f>VLOOKUP($A2,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.63500000000000001</v>
       </c>
-      <c r="T2" s="21"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T2" s="21" t="str">
+        <f>O2</f>
+        <v>bcg</v>
+      </c>
+      <c r="U2" t="str">
+        <f>TEXT(P2*100,"0")</f>
+        <v>79</v>
+      </c>
+      <c r="V2" t="str">
+        <f t="shared" ref="V2:W2" si="0">TEXT(Q2*100,"0")</f>
+        <v>72</v>
+      </c>
+      <c r="W2" t="str">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="X2" t="str">
+        <f>T2&amp;"&amp;"&amp;U2&amp;"\%&amp;"&amp;V2&amp;"\%&amp;"&amp;W2&amp;"\%\\"</f>
+        <v>bcg&amp;79\%&amp;72\%&amp;64\%\\</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
@@ -3688,9 +3707,28 @@
         <f>VLOOKUP($A3,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="T3" s="21"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T3" s="21" t="str">
+        <f t="shared" ref="T3:T12" si="1">O3</f>
+        <v>measles</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" ref="U3:U12" si="2">TEXT(P3*100,"0")</f>
+        <v>65</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V12" si="3">TEXT(Q3*100,"0")</f>
+        <v>54</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W12" si="4">TEXT(R3*100,"0")</f>
+        <v>48</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" ref="X3:X12" si="5">T3&amp;"&amp;"&amp;U3&amp;"\%&amp;"&amp;V3&amp;"\%&amp;"&amp;W3&amp;"\%\\"</f>
+        <v>measles&amp;65\%&amp;54\%&amp;48\%\\</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
@@ -3742,9 +3780,28 @@
         <f>VLOOKUP($A4,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.59099999999999997</v>
       </c>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>dpt1</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="5"/>
+        <v>dpt1&amp;78\%&amp;70\%&amp;59\%\\</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3796,9 +3853,28 @@
         <f>VLOOKUP($A5,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.59099999999999997</v>
       </c>
-      <c r="T5" s="21"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T5" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>dpt2</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="5"/>
+        <v>dpt2&amp;79\%&amp;69\%&amp;59\%\\</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
@@ -3850,9 +3926,28 @@
         <f>VLOOKUP($A6,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.55600000000000005</v>
       </c>
-      <c r="T6" s="21"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T6" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>dpt3</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="5"/>
+        <v>dpt3&amp;77\%&amp;64\%&amp;56\%\\</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
@@ -3904,9 +3999,28 @@
         <f>VLOOKUP($A7,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.60199999999999998</v>
       </c>
-      <c r="T7" s="21"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T7" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>polio0</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="5"/>
+        <v>polio0&amp;71\%&amp;60\%&amp;60\%\\</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
@@ -3958,9 +4072,28 @@
         <f>VLOOKUP($A8,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.20699999999999999</v>
       </c>
-      <c r="T8" s="21"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>polio1</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="5"/>
+        <v>polio1&amp;29\%&amp;17\%&amp;21\%\\</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
@@ -4012,9 +4145,28 @@
         <f>VLOOKUP($A9,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.19</v>
       </c>
-      <c r="T9" s="21"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>polio2</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="5"/>
+        <v>polio2&amp;25\%&amp;13\%&amp;19\%\\</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
@@ -4066,9 +4218,28 @@
         <f>VLOOKUP($A10,nightlight!$A$15:$D$25,2,0)</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="T10" s="21"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>polio3</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="5"/>
+        <v>polio3&amp;9\%&amp;0\%&amp;2\%\\</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
@@ -4120,9 +4291,28 @@
         <f>VLOOKUP($A11,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.58799999999999997</v>
       </c>
-      <c r="T11" s="21"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>health_card</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="5"/>
+        <v>health_card&amp;74\%&amp;67\%&amp;59\%\\</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
@@ -4174,9 +4364,28 @@
         <f>VLOOKUP($A12,nightlight!$A$15:$D$25,2,0)</f>
         <v>0.126</v>
       </c>
-      <c r="T12" s="21"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>any_vacc</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="5"/>
+        <v>any_vacc&amp;25\%&amp;13\%&amp;13\%\\</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4196,7 +4405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4216,7 +4425,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4389,10 +4598,10 @@
         <v>11</v>
       </c>
       <c r="B33" s="18">
-        <v>0.83589999999999998</v>
+        <v>0.80449999999999999</v>
       </c>
       <c r="C33" s="9">
-        <v>0.73939999999999995</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="D33" s="9">
         <f>VLOOKUP($A33,nightlight!$A$15:$D$25,2,0)</f>
@@ -4405,10 +4614,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="18">
-        <v>0.69289999999999996</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="C34" s="9">
-        <v>0.58320000000000005</v>
+        <v>0.60089999999999999</v>
       </c>
       <c r="D34" s="9">
         <f>VLOOKUP($A34,nightlight!$A$15:$D$25,2,0)</f>
@@ -4421,10 +4630,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="18">
-        <v>0.83260000000000001</v>
+        <v>0.7782</v>
       </c>
       <c r="C35" s="9">
-        <v>0.70989999999999998</v>
+        <v>0.70240000000000002</v>
       </c>
       <c r="D35" s="9">
         <f>VLOOKUP($A35,nightlight!$A$15:$D$25,2,0)</f>
@@ -4437,10 +4646,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="18">
-        <v>0.83330000000000004</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="C36" s="9">
-        <v>0.72330000000000005</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="D36" s="9">
         <f>VLOOKUP($A36,nightlight!$A$15:$D$25,2,0)</f>
@@ -4453,10 +4662,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="18">
-        <v>0.80869999999999997</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="C37" s="9">
-        <v>0.70120000000000005</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="D37" s="9">
         <f>VLOOKUP($A37,nightlight!$A$15:$D$25,2,0)</f>
@@ -4469,10 +4678,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="18">
-        <v>0.76800000000000002</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="C38" s="9">
-        <v>0.67210000000000003</v>
+        <v>0.63160000000000005</v>
       </c>
       <c r="D38" s="9">
         <f>VLOOKUP($A38,nightlight!$A$15:$D$25,2,0)</f>
@@ -4485,10 +4694,10 @@
         <v>15</v>
       </c>
       <c r="B39" s="19">
-        <v>0.80520000000000003</v>
+        <v>0.76259999999999994</v>
       </c>
       <c r="C39" s="11">
-        <v>0.67859999999999998</v>
+        <v>0.68469999999999998</v>
       </c>
       <c r="D39" s="11">
         <f>VLOOKUP($A39,nightlight!$A$15:$D$25,2,0)</f>
